--- a/3. advanced python/4. BeautifulSoup/parsing_product_name_and_price.xlsx
+++ b/3. advanced python/4. BeautifulSoup/parsing_product_name_and_price.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,22 +115,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,20 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -450,7 +437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -458,7 +445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -466,7 +453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -474,7 +461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -482,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -490,7 +477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -498,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
